--- a/Original Excel Files/DL-DR.xlsx
+++ b/Original Excel Files/DL-DR.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24026"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CCAC69C-804C-467B-958F-0A356852B384}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -141,7 +142,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -192,6 +193,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -239,7 +243,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -272,9 +276,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -307,6 +328,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -482,200 +520,200 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A5:G44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25:G25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15:G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>0</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C8" t="s">
         <v>1</v>
       </c>
-      <c r="D5">
+      <c r="F8">
         <v>1983</v>
       </c>
-      <c r="E5" t="s">
+      <c r="G8" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>9</v>
-      </c>
-      <c r="B20" t="s">
-        <v>10</v>
-      </c>
-      <c r="F20" t="s">
-        <v>11</v>
-      </c>
-      <c r="G20" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>13</v>
-      </c>
-      <c r="B22" t="s">
-        <v>14</v>
-      </c>
-      <c r="C22" t="s">
-        <v>15</v>
-      </c>
-      <c r="D22" t="s">
-        <v>16</v>
-      </c>
-      <c r="E22" t="s">
-        <v>17</v>
-      </c>
-      <c r="F22" t="s">
-        <v>18</v>
-      </c>
-      <c r="G22" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>13</v>
-      </c>
-      <c r="B23" t="s">
-        <v>14</v>
-      </c>
-      <c r="C23" t="s">
-        <v>15</v>
-      </c>
-      <c r="D23" t="s">
-        <v>16</v>
-      </c>
-      <c r="E23" t="s">
-        <v>17</v>
-      </c>
-      <c r="F23" t="s">
-        <v>18</v>
-      </c>
-      <c r="G23" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>20</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B9" t="s">
         <v>21</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C9" t="s">
         <v>22</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F9" t="s">
         <v>23</v>
       </c>
-      <c r="G25" t="s">
+      <c r="G9" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>20</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B10" t="s">
         <v>21</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C10" t="s">
         <v>22</v>
       </c>
-      <c r="F26" t="s">
+      <c r="F10" t="s">
         <v>23</v>
       </c>
-      <c r="G26" t="s">
+      <c r="G10" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F11">
+        <v>1960</v>
+      </c>
+      <c r="G11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>25</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B12" t="s">
         <v>26</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C12" t="s">
         <v>27</v>
       </c>
-      <c r="F28" t="s">
+      <c r="F12" t="s">
         <v>28</v>
       </c>
-      <c r="G28" t="s">
+      <c r="G12" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>30</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B13" t="s">
         <v>31</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C13" t="s">
         <v>32</v>
       </c>
-      <c r="F29" t="s">
+      <c r="F13" t="s">
         <v>33</v>
       </c>
-      <c r="G29" t="s">
+      <c r="G13" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>3</v>
-      </c>
-      <c r="C31" t="s">
-        <v>4</v>
-      </c>
-      <c r="D31">
-        <v>1960</v>
-      </c>
-      <c r="E31" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F14" t="s">
+        <v>38</v>
+      </c>
+      <c r="G14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>6</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C15" t="s">
         <v>7</v>
       </c>
-      <c r="D35">
+      <c r="F15">
         <v>1999</v>
       </c>
-      <c r="E35" t="s">
+      <c r="G15" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>35</v>
-      </c>
-      <c r="B40" t="s">
-        <v>36</v>
-      </c>
-      <c r="C40" t="s">
-        <v>37</v>
-      </c>
-      <c r="F40" t="s">
-        <v>38</v>
-      </c>
-      <c r="G40" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
@@ -697,12 +735,15 @@
       <c r="G44" s="1"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:G44">
+    <sortCondition ref="A1:A44"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -714,7 +755,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/Original Excel Files/DL-DR.xlsx
+++ b/Original Excel Files/DL-DR.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24026"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CCAC69C-804C-467B-958F-0A356852B384}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{911F6BD3-B68E-44C0-A7A3-864D0073B84D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,41 +17,29 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="27">
   <si>
     <t>DL65 .L63 1983</t>
   </si>
   <si>
-    <t>Logan, Donald</t>
-  </si>
-  <si>
     <t>The Vikings in History</t>
   </si>
   <si>
     <t>DP269 .K575</t>
   </si>
   <si>
-    <t>Koestler, Arthur</t>
-  </si>
-  <si>
     <t>Dialogue with Death</t>
   </si>
   <si>
     <t>DR435 .G8 M86 1999</t>
   </si>
   <si>
-    <t>De Murat, Jean</t>
-  </si>
-  <si>
     <t>The Great Extipation of Hellenism and Christianity in Asia Minor</t>
   </si>
   <si>
     <t>DL609 .S93</t>
   </si>
   <si>
-    <t>Swedish Institute, The</t>
-  </si>
-  <si>
     <t>1982 P</t>
   </si>
   <si>
@@ -61,18 +49,6 @@
     <t>DL648 .A6313</t>
   </si>
   <si>
-    <t>Andersson</t>
-  </si>
-  <si>
-    <t>Ingvar</t>
-  </si>
-  <si>
-    <t>Weibull</t>
-  </si>
-  <si>
-    <t>Jorgen</t>
-  </si>
-  <si>
     <t>???? P</t>
   </si>
   <si>
@@ -82,12 +58,6 @@
     <t>DL659 .D4 U4 1978</t>
   </si>
   <si>
-    <t>Ullsten</t>
-  </si>
-  <si>
-    <t>Ola</t>
-  </si>
-  <si>
     <t>1978 P</t>
   </si>
   <si>
@@ -97,12 +67,6 @@
     <t>DP48 .F84 1992</t>
   </si>
   <si>
-    <t>Fuentes</t>
-  </si>
-  <si>
-    <t>Carlos</t>
-  </si>
-  <si>
     <t>1992 P</t>
   </si>
   <si>
@@ -112,12 +76,6 @@
     <t>DP66 .S55</t>
   </si>
   <si>
-    <t>Smith</t>
-  </si>
-  <si>
-    <t>Rhea M.</t>
-  </si>
-  <si>
     <t>1965 H</t>
   </si>
   <si>
@@ -127,16 +85,19 @@
     <t>DR1313.32 .S27 F5513 1994</t>
   </si>
   <si>
-    <t>Zlata</t>
-  </si>
-  <si>
-    <t>Filipovic</t>
-  </si>
-  <si>
     <t>1994 P</t>
   </si>
   <si>
     <t>Zlata's Diary: A Child's Life in Sarajevo</t>
+  </si>
+  <si>
+    <t>LCC</t>
+  </si>
+  <si>
+    <t>Yr.</t>
+  </si>
+  <si>
+    <t>Title</t>
   </si>
 </sst>
 </file>
@@ -177,11 +138,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -521,222 +485,164 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A5:G44"/>
+  <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15:G15"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27.42578125" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="2"/>
+    <col min="3" max="3" width="60.140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="2">
+        <v>1983</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="B6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>14</v>
       </c>
-      <c r="C6" t="s">
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="2">
+        <v>1960</v>
+      </c>
+      <c r="C8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>15</v>
       </c>
-      <c r="D6" t="s">
+      <c r="B9" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E6" t="s">
+      <c r="C9" t="s">
         <v>17</v>
       </c>
-      <c r="F6" t="s">
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>18</v>
       </c>
-      <c r="G6" t="s">
+      <c r="B10" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" t="s">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>1983</v>
-      </c>
-      <c r="G8" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="C10" t="s">
         <v>20</v>
       </c>
-      <c r="B9" t="s">
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>21</v>
       </c>
-      <c r="C9" t="s">
+      <c r="B11" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F9" t="s">
+      <c r="C11" t="s">
         <v>23</v>
       </c>
-      <c r="G9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" t="s">
-        <v>22</v>
-      </c>
-      <c r="F10" t="s">
-        <v>23</v>
-      </c>
-      <c r="G10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11" t="s">
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>4</v>
       </c>
-      <c r="F11">
-        <v>1960</v>
-      </c>
-      <c r="G11" t="s">
+      <c r="B12" s="2">
+        <v>1999</v>
+      </c>
+      <c r="C12" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" t="s">
-        <v>27</v>
-      </c>
-      <c r="F12" t="s">
-        <v>28</v>
-      </c>
-      <c r="G12" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>30</v>
-      </c>
-      <c r="B13" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" t="s">
-        <v>32</v>
-      </c>
-      <c r="F13" t="s">
-        <v>33</v>
-      </c>
-      <c r="G13" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>35</v>
-      </c>
-      <c r="B14" t="s">
-        <v>36</v>
-      </c>
-      <c r="C14" t="s">
-        <v>37</v>
-      </c>
-      <c r="F14" t="s">
-        <v>38</v>
-      </c>
-      <c r="G14" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" t="s">
-        <v>7</v>
-      </c>
-      <c r="F15">
-        <v>1999</v>
-      </c>
-      <c r="G15" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="1"/>
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="1"/>
-      <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="1"/>
-      <c r="G44" s="1"/>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="1"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="1"/>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="1"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="1"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:G44">
-    <sortCondition ref="A1:A44"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C41">
+    <sortCondition ref="A1:A41"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
